--- a/src/наставники1.xlsx
+++ b/src/наставники1.xlsx
@@ -10,11 +10,12 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>ФИО</t>
   </si>
@@ -31,9 +32,6 @@
     <t>Отдел внутреннего контроля и аудита</t>
   </si>
   <si>
-    <t>Монашев Петр Игоревич</t>
-  </si>
-  <si>
     <t>Отдел технологического обеспечения</t>
   </si>
   <si>
@@ -52,9 +50,6 @@
     <t>Тоноян Грант Егишевич</t>
   </si>
   <si>
-    <t xml:space="preserve">Отдел организации интеграционного взаимодействия </t>
-  </si>
-  <si>
     <t>Логинова Елена Александровна</t>
   </si>
   <si>
@@ -88,9 +83,6 @@
     <t>Бухгалтерия</t>
   </si>
   <si>
-    <t>Зарплата</t>
-  </si>
-  <si>
     <t>Отчётность</t>
   </si>
   <si>
@@ -104,19 +96,110 @@
   </si>
   <si>
     <t>Курелов Амин Хан-Гереевич</t>
+  </si>
+  <si>
+    <t>Кабанова Юлия Николаевна</t>
+  </si>
+  <si>
+    <t>Пишков Алексей Алексеевич</t>
+  </si>
+  <si>
+    <t>Гридасов Максим Александрович</t>
+  </si>
+  <si>
+    <t>Струкова Анастасия Анатольевна</t>
+  </si>
+  <si>
+    <t>Храмов Павел Владимирович</t>
+  </si>
+  <si>
+    <t>Амерханова Эльвира Гумеровна</t>
+  </si>
+  <si>
+    <t>Прищеп Оксана Сергеевна</t>
+  </si>
+  <si>
+    <t>Чижов Сергей Сергеевич</t>
+  </si>
+  <si>
+    <t>Мосина Нина Алексеевна</t>
+  </si>
+  <si>
+    <t>Ставрунова Виктория Зиновьевна</t>
+  </si>
+  <si>
+    <t>Монашев Пётр Игоревич</t>
+  </si>
+  <si>
+    <t>Жучков Павел Анатольевич</t>
+  </si>
+  <si>
+    <t>Попова Ольга Николаевна</t>
+  </si>
+  <si>
+    <t>Отдел информационно-аналитического обеспечения</t>
+  </si>
+  <si>
+    <t>Отдел организации интеграционного взаимодействия</t>
+  </si>
+  <si>
+    <t>Отдел информационно-технологического сопровождения централизованной бухгалтерии</t>
+  </si>
+  <si>
+    <t>Административный отдел</t>
+  </si>
+  <si>
+    <t>Отдел расчетов, обязательств и государственного долга</t>
+  </si>
+  <si>
+    <t>Отдел централизованного учета доходов</t>
+  </si>
+  <si>
+    <t>Отдел централизованного учета капитальных вложений и НИОКР</t>
+  </si>
+  <si>
+    <t>Отдел консолидированной бюджетной отчетности и анализа</t>
+  </si>
+  <si>
+    <t>Отдел консолидированной бухгалтерской отчетности подведомственных учреждений и анализа</t>
+  </si>
+  <si>
+    <t>Отдел централизованного учета операций с межбюджетными трансфертами</t>
+  </si>
+  <si>
+    <t>Отдел централизованного учета расчетов и обязательств</t>
+  </si>
+  <si>
+    <t>Отдел централизованного ведения Главной книги</t>
+  </si>
+  <si>
+    <t>Юридический отдел</t>
+  </si>
+  <si>
+    <t>Отдел государственной гражданской службы и кадров</t>
+  </si>
+  <si>
+    <t>Самокиш Ариадна Артуровна</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,7 +210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -135,17 +218,103 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -159,11 +328,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:C12" totalsRowShown="0">
-  <autoFilter ref="A1:C12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:C25" totalsRowShown="0">
+  <autoFilter ref="A1:C25"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="ФИО"/>
-    <tableColumn id="2" name="Отдел"/>
+    <tableColumn id="1" name="ФИО" dataDxfId="1"/>
+    <tableColumn id="2" name="Отдел" dataDxfId="0"/>
     <tableColumn id="3" name="Блок"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -457,16 +626,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
   </cols>
   <sheetData>
@@ -481,125 +650,268 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
+    <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
